--- a/yabuki-a/PM演習矢吹a/コスト見積書/コスト見積もりC班.xlsx
+++ b/yabuki-a/PM演習矢吹a/コスト見積書/コスト見積もりC班.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wakatsuki\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wakatsuki\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\コスト見積書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>想定工数</t>
     <rPh sb="0" eb="2">
@@ -410,6 +410,58 @@
       <t>キンガク</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単体テスト</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合テスト</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト報告書</t>
+    <rPh sb="3" eb="6">
+      <t>ホウコクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニュアル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>納品書</t>
+    <rPh sb="0" eb="2">
+      <t>ノウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内部設計書</t>
+    <rPh sb="0" eb="2">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -497,10 +549,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1065,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1466,25 +1518,25 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1496,8 +1548,8 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="4" t="s">
         <v>37</v>
       </c>
@@ -1506,8 +1558,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="4" t="s">
         <v>38</v>
       </c>
@@ -1516,8 +1568,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="4" t="s">
         <v>39</v>
       </c>
@@ -1526,8 +1578,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1544,8 +1596,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="4" t="s">
         <v>42</v>
       </c>
@@ -1564,7 +1616,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="4">
-        <f>SUM(D3:D8)</f>
+        <f>SUM($D$3:$D$8)</f>
         <v>46800</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -1596,6 +1648,122 @@
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="4">
+        <f>3*3</f>
+        <v>9</v>
+      </c>
+      <c r="D15" s="4">
+        <f>C15*1000</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="4">
+        <f>3*3</f>
+        <v>9</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" ref="D16:D25" si="0">C16*1000</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="4">
+        <v>22</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="4">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="4">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="4">
+        <v>6</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D26" s="4">
+        <f>SUM($D$3:$D$8)</f>
+        <v>46800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D27" s="4">
+        <f>SUM(D15:D26)</f>
+        <v>112800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D28" s="4">
+        <f>D27*0.08</f>
+        <v>9024</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D29" s="4">
+        <f>SUM(D27:D28)</f>
+        <v>121824</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1605,5 +1773,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>